--- a/data/n2v/tables/model-1-1325-20230813-42.xlsx
+++ b/data/n2v/tables/model-1-1325-20230813-42.xlsx
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1100" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1103" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1106" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1107" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1108" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1121" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1127" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1132" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1133" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1136" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1137" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1141" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1146" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1147" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1149" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1155" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1156" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
@@ -21304,7 +21304,7 @@
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1160" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1162" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1165" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1166" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1169" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1170" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1172" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1174" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1176" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="C1179" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1179" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         </is>
       </c>
       <c r="C1182" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1182" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1183" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1187" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         </is>
       </c>
       <c r="C1188" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1188" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1190" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1191" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         </is>
       </c>
       <c r="C1192" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1192" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1193" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1196" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1197" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         </is>
       </c>
       <c r="C1198" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1198" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         </is>
       </c>
       <c r="C1200" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1200" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         </is>
       </c>
       <c r="C1203" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1203" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         </is>
       </c>
       <c r="C1207" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1207" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1216" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         </is>
       </c>
       <c r="C1218" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1218" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         </is>
       </c>
       <c r="C1220" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1220" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1222" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         </is>
       </c>
       <c r="C1225" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1225" t="inlineStr">
         <is>
@@ -22510,7 +22510,7 @@
         </is>
       </c>
       <c r="C1227" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1227" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="C1229" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1229" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         </is>
       </c>
       <c r="C1230" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1230" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         </is>
       </c>
       <c r="C1231" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1231" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1233" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1235" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1236" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         </is>
       </c>
       <c r="C1238" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1238" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         </is>
       </c>
       <c r="C1240" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1240" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         </is>
       </c>
       <c r="C1241" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1241" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         </is>
       </c>
       <c r="C1242" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1242" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         </is>
       </c>
       <c r="C1243" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1243" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         </is>
       </c>
       <c r="C1244" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1244" t="inlineStr">
         <is>
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1246" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1247" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         </is>
       </c>
       <c r="C1248" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1248" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1249" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="C1250" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1250" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1251" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         </is>
       </c>
       <c r="C1252" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1252" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         </is>
       </c>
       <c r="C1253" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1253" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="C1254" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1254" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1255" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1256" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1258" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1260" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1262" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1264" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         </is>
       </c>
       <c r="C1267" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1267" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1270" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="C1271" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1271" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         </is>
       </c>
       <c r="C1273" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1273" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         </is>
       </c>
       <c r="C1274" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1274" t="inlineStr">
         <is>
@@ -23374,7 +23374,7 @@
         </is>
       </c>
       <c r="C1275" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1275" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1276" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         </is>
       </c>
       <c r="C1277" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1277" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1280" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         </is>
       </c>
       <c r="C1281" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1281" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         </is>
       </c>
       <c r="C1286" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1286" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         </is>
       </c>
       <c r="C1288" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1288" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         </is>
       </c>
       <c r="C1289" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1289" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         </is>
       </c>
       <c r="C1290" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1290" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         </is>
       </c>
       <c r="C1291" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1291" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         </is>
       </c>
       <c r="C1292" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1292" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         </is>
       </c>
       <c r="C1293" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1293" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         </is>
       </c>
       <c r="C1294" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1294" t="inlineStr">
         <is>
@@ -23734,7 +23734,7 @@
         </is>
       </c>
       <c r="C1295" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1295" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1300" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1301" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         </is>
       </c>
       <c r="C1302" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1302" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1303" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1304" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1306" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         </is>
       </c>
       <c r="C1307" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1307" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="C1308" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1308" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1309" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         </is>
       </c>
       <c r="C1310" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1310" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         </is>
       </c>
       <c r="C1312" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1312" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         </is>
       </c>
       <c r="C1313" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1313" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         </is>
       </c>
       <c r="C1316" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1316" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         </is>
       </c>
       <c r="C1317" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1317" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1318" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         </is>
       </c>
       <c r="C1320" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1320" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         </is>
       </c>
       <c r="C1321" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1321" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         </is>
       </c>
       <c r="C1323" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1323" t="inlineStr">
         <is>
@@ -24310,7 +24310,7 @@
         </is>
       </c>
       <c r="C1327" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1327" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         </is>
       </c>
       <c r="C1328" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1328" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="C1329" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1329" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         </is>
       </c>
       <c r="C1332" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1332" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1333" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         </is>
       </c>
       <c r="C1334" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1334" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1335" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1337" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1338" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         </is>
       </c>
       <c r="C1339" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1339" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         </is>
       </c>
       <c r="C1340" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1340" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         </is>
       </c>
       <c r="C1341" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1341" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1346" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1347" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1348" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="C1349" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1349" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1350" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         </is>
       </c>
       <c r="C1351" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1351" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1352" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         </is>
       </c>
       <c r="C1355" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1355" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         </is>
       </c>
       <c r="C1357" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1357" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         </is>
       </c>
       <c r="C1359" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1359" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         </is>
       </c>
       <c r="C1361" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1361" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1362" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         </is>
       </c>
       <c r="C1365" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1365" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1367" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         </is>
       </c>
       <c r="C1368" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1368" t="inlineStr">
         <is>
@@ -25084,7 +25084,7 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1370" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         </is>
       </c>
       <c r="C1371" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1371" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         </is>
       </c>
       <c r="C1372" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1372" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         </is>
       </c>
       <c r="C1373" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1373" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         </is>
       </c>
       <c r="C1374" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1374" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         </is>
       </c>
       <c r="C1375" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1375" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         </is>
       </c>
       <c r="C1376" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         </is>
       </c>
       <c r="C1377" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1377" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         </is>
       </c>
       <c r="C1378" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1378" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="C1379" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1379" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1380" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         </is>
       </c>
       <c r="C1381" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1381" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         </is>
       </c>
       <c r="C1383" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1383" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1384" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1385" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1387" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         </is>
       </c>
       <c r="C1388" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1388" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="C1389" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1389" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         </is>
       </c>
       <c r="C1390" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1390" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1391" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         </is>
       </c>
       <c r="C1392" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1392" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1394" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         </is>
       </c>
       <c r="C1395" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1395" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         </is>
       </c>
       <c r="C1396" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1396" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1397" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         </is>
       </c>
       <c r="C1398" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1398" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1399" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1401" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1402" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         </is>
       </c>
       <c r="C1403" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1403" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="C1404" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1404" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1406" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         </is>
       </c>
       <c r="C1407" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1407" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         </is>
       </c>
       <c r="C1408" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1408" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         </is>
       </c>
       <c r="C1410" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1410" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         </is>
       </c>
       <c r="C1411" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1411" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         </is>
       </c>
       <c r="C1412" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1412" t="inlineStr">
         <is>
@@ -25858,7 +25858,7 @@
         </is>
       </c>
       <c r="C1413" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1413" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1414" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1415" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         </is>
       </c>
       <c r="C1416" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1416" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         </is>
       </c>
       <c r="C1417" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1417" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         </is>
       </c>
       <c r="C1418" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1418" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         </is>
       </c>
       <c r="C1419" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1419" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1420" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         </is>
       </c>
       <c r="C1421" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1421" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="C1422" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1422" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         </is>
       </c>
       <c r="C1423" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1423" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         </is>
       </c>
       <c r="C1424" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1424" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1425" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         </is>
       </c>
       <c r="C1426" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1426" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1427" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         </is>
       </c>
       <c r="C1428" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1428" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1429" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         </is>
       </c>
       <c r="C1430" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1430" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         </is>
       </c>
       <c r="C1431" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1431" t="inlineStr">
         <is>
@@ -26200,7 +26200,7 @@
         </is>
       </c>
       <c r="C1432" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1432" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         </is>
       </c>
       <c r="C1433" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1433" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         </is>
       </c>
       <c r="C1435" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1435" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         </is>
       </c>
       <c r="C1436" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1436" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         </is>
       </c>
       <c r="C1437" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1437" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1438" t="inlineStr">
         <is>
@@ -26326,7 +26326,7 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1439" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         </is>
       </c>
       <c r="C1440" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1440" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         </is>
       </c>
       <c r="C1441" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1441" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         </is>
       </c>
       <c r="C1442" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1442" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         </is>
       </c>
       <c r="C1443" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1443" t="inlineStr">
         <is>
@@ -26416,7 +26416,7 @@
         </is>
       </c>
       <c r="C1444" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1444" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         </is>
       </c>
       <c r="C1445" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1445" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         </is>
       </c>
       <c r="C1446" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1446" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         </is>
       </c>
       <c r="C1447" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1447" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         </is>
       </c>
       <c r="C1448" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1448" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         </is>
       </c>
       <c r="C1449" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1449" t="inlineStr">
         <is>
@@ -26524,7 +26524,7 @@
         </is>
       </c>
       <c r="C1450" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1450" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         </is>
       </c>
       <c r="C1452" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1452" t="inlineStr">
         <is>
@@ -26578,7 +26578,7 @@
         </is>
       </c>
       <c r="C1453" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1453" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1454" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         </is>
       </c>
       <c r="C1455" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1455" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         </is>
       </c>
       <c r="C1457" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1457" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         </is>
       </c>
       <c r="C1458" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1458" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         </is>
       </c>
       <c r="C1459" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1459" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         </is>
       </c>
       <c r="C1460" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         </is>
       </c>
       <c r="C1461" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1461" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         </is>
       </c>
       <c r="C1462" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1462" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         </is>
       </c>
       <c r="C1463" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1463" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         </is>
       </c>
       <c r="C1464" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1464" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         </is>
       </c>
       <c r="C1465" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         </is>
       </c>
       <c r="C1466" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1466" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         </is>
       </c>
       <c r="C1467" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1467" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         </is>
       </c>
       <c r="C1468" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1468" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="C1469" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1469" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         </is>
       </c>
       <c r="C1470" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1470" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         </is>
       </c>
       <c r="C1471" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1471" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         </is>
       </c>
       <c r="C1472" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1472" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         </is>
       </c>
       <c r="C1473" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         </is>
       </c>
       <c r="C1474" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1474" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         </is>
       </c>
       <c r="C1476" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1476" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         </is>
       </c>
       <c r="C1477" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         </is>
       </c>
       <c r="C1478" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="C1479" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         </is>
       </c>
       <c r="C1480" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         </is>
       </c>
       <c r="C1481" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1481" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         </is>
       </c>
       <c r="C1482" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1482" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         </is>
       </c>
       <c r="C1483" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1483" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         </is>
       </c>
       <c r="C1484" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1484" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         </is>
       </c>
       <c r="C1485" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1485" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         </is>
       </c>
       <c r="C1486" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1486" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         </is>
       </c>
       <c r="C1487" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1487" t="inlineStr">
         <is>
@@ -27208,7 +27208,7 @@
         </is>
       </c>
       <c r="C1488" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1488" t="inlineStr">
         <is>
@@ -27226,7 +27226,7 @@
         </is>
       </c>
       <c r="C1489" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1489" t="inlineStr">
         <is>
